--- a/Excel_Appender/Excel_Files_To_Append/ilanlar_6.xlsx
+++ b/Excel_Appender/Excel_Files_To_Append/ilanlar_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,48 +498,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ARGA'DAN BUCA HEYKEL YAKINI ARAKAT D.GAZLI 2+1 KİRALIK DAİRE.</t>
+          <t>Şirinyer Nato Karşısı 3+1 140 M2 Doğalgazlı Arakat Kiralık Daire</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / İnkılap Mah.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95 m²</t>
+          <t>140 m²</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6 Yaşında</t>
+          <t>17 Yaşında</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>01-11-2024</t>
+          <t>12-10-2024</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/63598-146</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/24511-9105</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -561,169 +561,169 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BUCA DA MERKEZİ KONUMDA EŞYALI 1+1</t>
+          <t>Buca Göksu mahallesinde arakat kiralık 2+1 kiralık daire İZBAN yakını</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıkule Mah.</t>
+          <t>İzmir / Buca / Göksu Mah.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16.000
+          <t>13.000
 TL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>03-11-2024</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/149792-19</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-goksu-kiralik/daire/30304-196</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>İzmir Buca Hürriyet Mah//Şirinyer Menderes Caddesinde//İzbana 8-10Dk Mes.//2.Kat Memura Daire</t>
+          <t>ATAMER GAYRİMENKUL'DEN KAPALI MUTFAK 2+1 DAİRE.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20.000
+          <t>19.000
 TL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2 + 0</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>03-11-2024</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/85846-1854</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/151729-4</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MARKA'DAN YILDIZ MAH. 3+1 ARAKAT D.GAZLI BALKONLU KİRALIK DAİRE</t>
+          <t>BUCA UFUK MAH. YIKIKKEMER MEY. YAKINI 2+1 &amp; 80 m2 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Ufuk Mah.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>25.500
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16 Yaşında</t>
+          <t>7 Yaşında</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Giriş Katı</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>29-10-2024</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/71024-1062</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ufuk-kiralik/daire/15356-5754</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -734,54 +734,59 @@
       <c r="K5" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MUHTEŞEM KONUMDA FIRSAT ARAKAT 1+1 DAİRE</t>
+          <t>EFELER MAH. SİTE İÇERİSİNDE 3+1 EBEVEYN BANYOLU KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Efeler Mah.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14.500
+          <t>36.000
 TL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>62 m²</t>
+          <t>160 m²</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>26-10-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144837-73</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/18435-5263</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -791,14 +796,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Yerden Isıtma</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BAŞOĞLUN'DAN EŞYALI BALKONLU 1+1 DAİRE</t>
+          <t>BAŞOĞLUN'DAN EŞYALI DOĞALGAZLI 1+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -808,7 +818,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17.000
+          <t>20.000
 TL</t>
         </is>
       </c>
@@ -819,7 +829,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -829,17 +839,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>14-10-2024</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/129980-615</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/129980-622</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -850,23 +860,28 @@
       <c r="K7" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BUCA ADA TEPE MAH.'DE 2+1 ARA KAT D.GAZLI BAKIMLI DAİRE</t>
+          <t>YAYLACIK MAHALLESİ 2+1 AÇIK MUTFAK DOĞALGAZ ARAKAT EŞYALI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17.000
+          <t>25.500
 TL</t>
         </is>
       </c>
@@ -877,49 +892,44 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>22 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>03-11-2024</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/111960-238</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/145175-69</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KAMPÜS YAKINI 2+1 EŞYALI  KİRALIK DAİRE</t>
+          <t>REF'DEN İBF YANI DOĞALGAZLI TERASLI DUBLEKS 2+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -929,70 +939,65 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>95 m²</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>29-09-2024</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/145398-66</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144696-138</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ÇEVİK BİR MEYDAN GENİŞ 3 CEPHE 3+1 3 KLİMALI DOĞALGAZLI DAİRE</t>
+          <t>AY GAYRİMENKUL'DEN GÖKSU'DA 2+1 EŞYALI DOĞALGAZLI KİRALIK DAİRE!</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Göksu Mah.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>24.000
+          <t>16.950
 TL</t>
         </is>
       </c>
@@ -1003,32 +1008,32 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>16 Yaşında</t>
+          <t>11 Yaşında</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>20-10-2024</t>
+          <t>27-09-2024</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/147679-36</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-goksu-kiralik/daire/144455-53</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1040,33 +1045,33 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3+1 eşyali kiralik daire</t>
+          <t>ADA EMLAKTAN KİRALIK 2+1 EŞYALI DOĞALGAZLI KLİMALI DAİRE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Dumlupınar Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1076,12 +1081,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>25-10-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/daire/0-43553841</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/145203-42</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1091,60 +1096,55 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Belirtilmemiş</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kiralık 3+1Doğalgazlı Daire</t>
+          <t>bucaPARİSA'DAN HASANAĞA BAH.YANI D.GAZLI KLİMALI ASANSÖRLÜ 2+1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yiğitler Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18.000
+          <t>22.000
 TL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>29-10-2024</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/80082-208</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/143816-33</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1155,28 +1155,23 @@
       <c r="K12" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EŞYALI KİRALIK DOĞALGAZLI 2+1 DAİRE</t>
+          <t>Safir'den Kiralık DoğalGazlı 2+1 Daire</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Gaziler Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20.000
+          <t>27.000
 TL</t>
         </is>
       </c>
@@ -1187,27 +1182,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>31 Yaşında</t>
+          <t>3 Yaşında</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09-10-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-gaziler-kiralik/daire/144436-68</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/109159-325</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1224,17 +1219,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BUCA ÇEVİK 1 MEYDANI YANI CADDE ÜZERİ 3+1 ÖNÜ AÇIK KİRALIK FUNDA</t>
+          <t>NEZİH SİTE İÇİ ''2+1'' FULL EŞYALI - OTOPARKLI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Dumlupınar Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>35.000
+          <t>26.000
 TL</t>
         </is>
       </c>
@@ -1245,85 +1240,90 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>16 Yaşında</t>
+          <t>15 Yaşında</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>14-10-2024</t>
+          <t>17-09-2024</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/daire/143997-57</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104457-8</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Smyrna Team KW’ den Buca Kuruçeşme’de Kiralık 3+1 Arakat Daire</t>
+          <t>YAYLACIK MAHALLESİNDE  2+1 SATILIK DAİRE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>24.000
+          <t>3.100.000
 TL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>27 Yaşında</t>
+          <t>6 Yaşında</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>02-11-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/31220-9321</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/145398-61</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1345,48 +1345,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BUCA YAYLACIK MAHALLESİ KİRALIK DAİRE</t>
+          <t>ŞİRİNYER LALELİ’DE 2+1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Laleli Mah.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13.000
+          <t>19.000
 TL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>85 m²</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>6 Yaşında</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Giriş Katı</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>30-09-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/148573-65</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/142604-72</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1397,39 +1397,44 @@
       <c r="K16" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EGE EMLAK'TAN BUCA TINAZTEPE VE İKTİSAT FAKÜLTESİ  YAKINI 1+1 KİRALIK DAİRE</t>
+          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 2+1 DGAZLI&amp;EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>60 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1439,12 +1444,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>10-10-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/102580-262</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1054</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1454,60 +1459,55 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Klima</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>9 Eylül üniversitesine 5 dakika,kalabalık aileler için geniş, full eşyalı doğalgazlı satılık</t>
+          <t>BUCA AHMET YESEVI YURDU KARSISI 1+1 FULL ESYALI D.GAZLİ KIRALIK DAIRE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Yıldız Mah.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.750.000
+          <t>13.500
 TL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>160 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Giriş Katı</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>25-10-2024</t>
+          <t>09-11-2024</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/130125-75</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/111716-1111</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1529,244 +1529,244 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Buca Kuruçeşme Mah. Kiralık Eşyalı Daire</t>
+          <t>kiralık içi full yapılı 4 kat son kat göksu mahlesi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Yeşilbağlar Mah.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13.500
+          <t>18.500
 TL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>26-10-2024</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/151855-15</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yesilbaglar-kiralik/daire/99575-346</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Buca PARİSADAN SİTE İÇİNDE EŞYALI DGAZLI KLİMALI KİRALIK 3+1</t>
+          <t>ER YAPI EMLAK OFİSİNDEN HASANAĞA BAHÇESİ ve İİBF CİVARI 2+1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>21.000
+          <t>16.000
 TL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>125 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>16 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>8. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>29-10-2024</t>
+          <t>15-10-2024</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/143816-38</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/68864-2413</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SAFİR'den Kuruçeşme Mahallesinde Eşyalı Balkonlu Kiralık Daire</t>
+          <t>Buca yeşilbağlar mah kiralık arakat 165m2  3+1Doğalgazlı</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Göksu Mah.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>11.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Stüdyo</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>165 m²</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>18 Yaşında</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>28-10-2024</t>
+          <t>03-11-2024</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/109159-293</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-goksu-kiralik/daire/30304-195</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ÜÇKUYULAR MEYDAN VE FAKÜLTELER YAKINI '2+1' ARAKAT-DGAZLI DAİRE</t>
+          <t>ev arkadaşı arıyoruz</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Menderes Mah.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15.000
+          <t>9.300
 TL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>46 m²</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>23-10-2024</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104457-29</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Eşyalı Değil</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-menderes-kiralik/daire/0-43583207</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Soba</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BUCA TINAZTEPE AHMET YESEVİ KIZ YURDU YANI 1+1 FULL EŞYALI KLİMALI BAHÇELİ LÜX KİRALIK DAİRE</t>
+          <t>KAMPÜSE YÜRÜME MESAFESİNDE GENİŞ BALKONLU EŞYALI 2+1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1776,13 +1776,13 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1797,17 +1797,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Giriş Katı</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>14-10-2024</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/111716-1075</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/142478-104</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1824,48 +1824,48 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BUCA'DA ÜNİVERSİTE'YE YAKIN BEKAR VE ÖĞRENCİYE UYGUN ULAŞIMI KOLAY 1+1 ARAKAT KİRALIK DAİRE</t>
+          <t>VİRAJ EMLAK ARA KAT  DOĞALGAZLI 2+1 85mt UÇAN YOL CİVARI BUCA ŞİRİNYER</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Çamlık Mah.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12.000
+          <t>14.000
 TL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/150876-4</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-camlik-kiralik/daire/98587-1441</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1880,24 +1880,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Şirinyer İzban Karşısı 3+1 165 M2 Kiralk Bakımlı Arakat Daire</t>
+          <t>ATAMER GAYRİMENKUL'DEN FULL LÜX EŞYALI 3+1 DAİRE.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Buca Koop. Mah.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>30.000
+          <t>27.000
 TL</t>
         </is>
       </c>
@@ -1908,201 +1908,206 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>165 m²</t>
+          <t>140 m²</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>11 Yaşında</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>26-10-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/24511-9124</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-buca-koop-kiralik/daire/151729-3</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ARGA'DAN BUCA HEYKEL YAKINI ARAKAT D.GAZLI 2+1 KİRALIK DAİRE.</t>
+          <t>TINAZTEPE HASTANESİ VE KAMPÜS YAK. FULL EŞY. 2+1 VE 70 m2 DAİRE</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25.000
+          <t>23.000
 TL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>2 + 4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>95 m²</t>
+          <t>70 m²</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>01-11-2024</t>
+          <t>04-11-2024</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/63598-146</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/15356-5749</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BUCA DA MERKEZİ KONUMDA EŞYALI 1+1</t>
+          <t>LALELİ'DE 2+1 ASANSÖRLÜ DOĞALGAZLI YENİ BİNADA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıkule Mah.</t>
+          <t>İzmir / Buca / Laleli Mah.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16.000
+          <t>21.000
 TL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/149792-19</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/129980-611</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>İzmir Buca Hürriyet Mah//Şirinyer Menderes Caddesinde//İzbana 8-10Dk Mes.//2.Kat Memura Daire</t>
+          <t>NİRVANA'DAN EVKA1 DE EŞYALI KİRALIK DUBLEKS MÜSATKİL EV</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Murathan Mah.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20.000
+          <t>32.500
 TL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2 + 0</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>26 Yaşında</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Bahçe Katı</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>03-11-2024</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/85846-1854</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-murathan-kiralik/mustakil-ev/145175-68</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2112,55 +2117,55 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MARKA'DAN YILDIZ MAH. 3+1 ARAKAT D.GAZLI BALKONLU KİRALIK DAİRE</t>
+          <t>REF'DEN KAMPÜS KARŞISI LÜKS EŞYALI BALKONLU 2+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>25.500
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>16 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>25-09-2024</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/71024-1062</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/144696-136</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2170,19 +2175,19 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MUHTEŞEM KONUMDA FIRSAT ARAKAT 1+1 DAİRE</t>
+          <t>BUCA ADA EMLAK'TAN ATATÜRK MH.KİRALIK SİTE İÇİ 3+1 DGZLI DAİRE</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2192,96 +2197,96 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14.500
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>62 m²</t>
+          <t>140 m²</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>16 Yaşında</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>26-10-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144837-73</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/145203-37</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Kat Kaloriferi</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BAŞOĞLUN'DAN EŞYALI BALKONLU 1+1 DAİRE</t>
+          <t>bucaPARİSA'DAN KAMP.KARŞISI D.GAZLI KLİMALI ASANSÖRLÜ EŞYALI 3+0</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17.000
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>125 m²</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>21 Yaşında</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>29-10-2024</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/129980-615</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/143816-32</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2291,19 +2296,14 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BUCA ADA TEPE MAH.'DE 2+1 ARA KAT D.GAZLI BAKIMLI DAİRE</t>
+          <t>SAFİR'DEN Neşet Ertaş Parkı Yanı 1+1 Doğalgazlı Daire</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2313,149 +2313,144 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17.000
+          <t>11.500
 TL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>22 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/111960-238</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/109159-292</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KAMPÜS YAKINI 2+1 EŞYALI  KİRALIK DAİRE</t>
+          <t>ÇAMLIKULE MH. MERKEZİ KONUMDA // 2+1 // D.Gazlı- Kapalı Mutfak - 2 Balkon -  ARAKAT KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Çamlıkule Mah.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17.000
+          <t>16.500
 TL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>17-10-2024</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/145398-66</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/104457-1</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Elektrik</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ÇEVİK BİR MEYDAN GENİŞ 3 CEPHE 3+1 3 KLİMALI DOĞALGAZLI DAİRE</t>
+          <t>Buca Gazi Osman Paşa Cad. Üzeri 2+1 95m2 Eşyalı Asansörlü Daire</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Şirinkapı Mah.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>24.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>95 m²</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>16 Yaşında</t>
+          <t>12 Yaşında</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2465,12 +2460,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>20-10-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/147679-36</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-sirinkapi-kiralik/daire/24511-9117</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2492,17 +2487,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3+1 eşyali kiralik daire</t>
+          <t>YAŞAM EVLERİNDE 3+1 EBEVEYN BANYOLU ARAKAT KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Dumlupınar Mah.</t>
+          <t>İzmir / Buca / Fırat Mah.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>20.000
+          <t>32.000
 TL</t>
         </is>
       </c>
@@ -2513,12 +2508,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>13 Yaşında</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2528,39 +2523,44 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>25-10-2024</t>
+          <t>29-10-2024</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/daire/0-43553841</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-firat-kiralik/daire/18435-5268</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Kiralık 3+1Doğalgazlı Daire</t>
+          <t>ATA EMLKTAN SİTE İÇİ KİRALIK 3+1 ARA KAT DAİRE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yiğitler Mah.</t>
+          <t>İzmir / Buca / Seyhan Mah.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>18.000
+          <t>30.000
 TL</t>
         </is>
       </c>
@@ -2571,27 +2571,27 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>155 m²</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>16 Yaşında</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>5. Kat</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/80082-208</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-seyhan-kiralik/daire/6425-4610</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2613,17 +2613,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EŞYALI KİRALIK DOĞALGAZLI 2+1 DAİRE</t>
+          <t>BUCA ADATEPEDE 15 BİN TL KİRALİK DAİRE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Gaziler Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>20.000
+          <t>13.000
 TL</t>
         </is>
       </c>
@@ -2634,27 +2634,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>31 Yaşında</t>
+          <t>8 Yaşında</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>6. Kat</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-10-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-gaziler-kiralik/daire/144436-68</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/145398-42</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2671,106 +2671,111 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BUCA ÇEVİK 1 MEYDANI YANI CADDE ÜZERİ 3+1 ÖNÜ AÇIK KİRALIK FUNDA</t>
+          <t>ARGA'DAN BUCA ÇEVİK 1 MEYDAN YAKINI EŞYALI D.GAZLI 1+1 KİRALIK DAİRE.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Dumlupınar Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>35.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>70 m²</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>16 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>Bahçe Katı</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>14-10-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/daire/143997-57</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/63598-135</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Smyrna Team KW’ den Buca Kuruçeşme’de Kiralık 3+1 Arakat Daire</t>
+          <t>OKAN EMLAKTAN BUCA HASANAĞA BAHÇESİ YAKINI 1+1  DAİRE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>24.000
+          <t>14.500
 TL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>27 Yaşında</t>
+          <t>8 Yaşında</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>02-11-2024</t>
+          <t>04-11-2024</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/31220-9321</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/13470-1742</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2780,55 +2785,60 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BUCA YAYLACIK MAHALLESİ KİRALIK DAİRE</t>
+          <t>ŞİRİNYERDE KİRALIK 1+1 DAİRE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / İnkılap Mah.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>13.000
+          <t>12.000
 TL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>Stüdyo</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>49 m²</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Giriş Katı</t>
+          <t>Bodrum ve Zemin</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>30-09-2024</t>
+          <t>21-10-2024</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/148573-65</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/27958-372</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2839,13 +2849,18 @@
       <c r="K40" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EGE EMLAK'TAN BUCA TINAZTEPE VE İKTİSAT FAKÜLTESİ  YAKINI 1+1 KİRALIK DAİRE</t>
+          <t>BUCA ADATEPE MAHALLESİ 3+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2855,43 +2870,43 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12.000
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>60 m²</t>
+          <t>170 m²</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>10-10-2024</t>
+          <t>03-09-2024</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/102580-262</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/0-43308080</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2908,48 +2923,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>9 Eylül üniversitesine 5 dakika,kalabalık aileler için geniş, full eşyalı doğalgazlı satılık</t>
+          <t>Buca Oyak 1.Etap'da Eşyalı,Havuzlu,Otoparklı  Sıfır 2+1 Kiralık Rezidans</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Aydoğdu Mah.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2.750.000
+          <t>45.000
 TL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>160 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>12 Yaşında</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Giriş Katı</t>
+          <t>Bahçe Katı</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>25-10-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/130125-75</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-aydogdu-kiralik/daire/132940-591</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2959,7 +2974,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2971,17 +2986,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Buca Kuruçeşme Mah. Kiralık Eşyalı Daire</t>
+          <t>AÇIKLAMAYI OKUYUN ATATÜRK MAH SİTE İÇERİSİNDE FULL EŞYALI ULTRA LÜX DAİRE</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>13.500
+          <t>17.000
 TL</t>
         </is>
       </c>
@@ -2992,7 +3007,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3002,7 +3017,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>6. Kat</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3012,70 +3027,70 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/151855-15</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/0-39725029</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Buca PARİSADAN SİTE İÇİNDE EŞYALI DGAZLI KLİMALI KİRALIK 3+1</t>
+          <t>Buca Atatürk Mahallesi ŞANLI RESİDENCE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>21.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>125 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>16 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>8. Kat</t>
+          <t>Bahçe Katı</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>29-10-2024</t>
+          <t>23-10-2024</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/143816-38</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/144765-64</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3085,7 +3100,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Merkezi</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3097,28 +3112,28 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SAFİR'den Kuruçeşme Mahallesinde Eşyalı Balkonlu Kiralık Daire</t>
+          <t>MARKA'DAN ARAKAT&amp;ASANSÖRLÜ&amp;BALKONLU 2+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>11.000
+          <t>15.500
 TL</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Stüdyo</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>70 m²</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3128,75 +3143,80 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>28-10-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/109159-293</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/71024-1043</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ÜÇKUYULAR MEYDAN VE FAKÜLTELER YAKINI '2+1' ARAKAT-DGAZLI DAİRE</t>
+          <t>* Buca Akıncılar Nato Lokasyonunda Kiralık  3+1 Geniş  Daire.!</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Akıncılar Mah.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>15.000
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>145 m²</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>23 Yaşında</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>03-10-2024</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104457-29</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-akincilar-kiralik/daire/126264-1773</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3208,48 +3228,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BUCA TINAZTEPE AHMET YESEVİ KIZ YURDU YANI 1+1 FULL EŞYALI KLİMALI BAHÇELİ LÜX KİRALIK DAİRE</t>
+          <t>BUCA HEYKEL MEYDANDA FULL EŞYALI D.GAZLI KİRALIK DAİRELER ÖĞRENCİ ÇALIŞAN OLUR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14.000
+          <t>12.000
 TL</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>Stüdyo</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Giriş Katı</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/111716-1075</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/111716-1106</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3271,33 +3291,33 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BUCA'DA ÜNİVERSİTE'YE YAKIN BEKAR VE ÖĞRENCİYE UYGUN ULAŞIMI KOLAY 1+1 ARAKAT KİRALIK DAİRE</t>
+          <t>Çevikbir meydanı ve SSK Hastanesine2 Dk Mesafede 2+1 Daire</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>12.000
+          <t>23.000
 TL</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>115 m²</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>9 Yaşında</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3307,12 +3327,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>23-08-2024</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/150876-4</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/0-43232517</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3334,17 +3354,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Şirinyer İzban Karşısı 3+1 165 M2 Kiralk Bakımlı Arakat Daire</t>
+          <t>Full eşyalı d.gazlı kiralık daire</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>30.000
+          <t>21.000
 TL</t>
         </is>
       </c>
@@ -3355,37 +3375,37 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>165 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>15 Yaşında</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>26-10-2024</t>
+          <t>27-10-2024</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/24511-9124</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/0-12287237</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Doğalgaz Sobası</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3397,12 +3417,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ARGA'DAN BUCA HEYKEL YAKINI ARAKAT D.GAZLI 2+1 KİRALIK DAİRE.</t>
+          <t>GÜNEŞ'TEN 3+1 140m2 D.GAZ ASANSÖR OTOPARKLI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Mustafa Kemal Mah.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3413,80 +3433,75 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>95 m²</t>
+          <t>145 m²</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>6 Yaşında</t>
+          <t>7 Yaşında</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>01-11-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/63598-146</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-mustafa-kemal-kiralik/daire/130324-806</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BUCA DA MERKEZİ KONUMDA EŞYALI 1+1</t>
+          <t>BUCA YABANCI DİLLER FAKÜLTESİNE 3-4 DK. MESAFEDE KİRALIK 2+1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıkule Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>16.000
+          <t>17.000
 TL</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>6 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3496,75 +3511,80 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/149792-19</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/15356-5747</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>İzmir Buca Hürriyet Mah//Şirinyer Menderes Caddesinde//İzbana 8-10Dk Mes.//2.Kat Memura Daire</t>
+          <t>TINAZTEPE KAMPÜS KARŞISI 1+1 EŞYALI DOĞALGAZLI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>20.000
+          <t>17.000
 TL</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2 + 0</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>03-11-2024</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/85846-1854</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/145175-67</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3576,7 +3596,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MARKA'DAN YILDIZ MAH. 3+1 ARAKAT D.GAZLI BALKONLU KİRALIK DAİRE</t>
+          <t>bucaPARİSADAN TINAZTEPE HAST. VE KAMPÜSE YAKIN KİRALIK 3+1 DAİRE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3586,7 +3606,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>25.500
+          <t>19.500
 TL</t>
         </is>
       </c>
@@ -3597,7 +3617,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>125 m²</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3607,49 +3627,44 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>8. Kat</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>29-10-2024</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/71024-1062</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/143816-31</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Klima</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MUHTEŞEM KONUMDA FIRSAT ARAKAT 1+1 DAİRE</t>
+          <t>Tınaztepe Kampüse yakın Tınaztepe Hastanesi civarı 1+1 80 m2 Dgazlı Lüks Eşyalı Asansörlü Arakat</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>14.500
+          <t>20.000
 TL</t>
         </is>
       </c>
@@ -3660,27 +3675,27 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>62 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>26-10-2024</t>
+          <t>23-10-2024</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144837-73</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/3526-3165</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3702,111 +3717,101 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BAŞOĞLUN'DAN EŞYALI BALKONLU 1+1 DAİRE</t>
+          <t>VİRAJ EMLAK KİRALIK 2+1 70m D.GAZLI SIFIR DAİRE YÜKSEK GİRİŞLİ ŞİRİNYER</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Laleli Mah.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>17.000
+          <t>15.500
 TL</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>02-11-2024</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/129980-615</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/98587-1464</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BUCA ADA TEPE MAH.'DE 2+1 ARA KAT D.GAZLI BAKIMLI DAİRE</t>
+          <t>Kiralık Daire üniversite tam karşısında</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Menderes Mah.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>17.000
+          <t>22.500
 TL</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>138 m²</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>22 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>24-09-2024</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/111960-238</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-menderes-kiralik/daire/146551-27</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3816,7 +3821,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Doğalgaz Sobası</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3828,120 +3833,3328 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>KAMPÜS YAKINI 2+1 EŞYALI  KİRALIK DAİRE</t>
+          <t>Buca Şirinyer Hürriyet Mah 3+1 110 M2 D.gaz Asansör Otpark Eşyal</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>17.000
+          <t>30.000
 TL</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>115 m²</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>3 Yaşında</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>11-10-2024</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/145398-66</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/83461-587</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ÇEVİK BİR MEYDAN GENİŞ 3 CEPHE 3+1 3 KLİMALI DOĞALGAZLI DAİRE</t>
+          <t>Buca Adatepe Mahallesi Ünüversite Yakını 115m2 2+1 Önü Açık Memur Aileye Kiralık sıfır Daire</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>İzmir / Buca / Adatepe Mah.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>20.000
+TL</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1 + 2</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>115 m²</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sıfır Bina</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>5. Kat</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>24-10-2024</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/85846-1879</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>YAYLACIK'TA 2+1 DOĞALGAZLI ARA KAT YENİ DAİRE</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>16.000
+TL</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85 m²</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3 Yaşında</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Giriş Katı</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>31-10-2024</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/129980-639</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SAFİR'den Kampüs Karşısı Eşyalı Balkonlu Kiralık Daire</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>18.000
+TL</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>70 m²</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3 Yaşında</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>28-10-2024</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/109159-305</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ONE HOUSE GAYRİMENKUL DEN KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Adatepe Mah.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>14.000
+TL</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>65 m²</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Ara Kat</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>31-10-2024</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144273-90</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BUCA"NIN MERKEZİ YERİNDE 3+1 130M2 DOĞALGAZLI ASANSÖRLÜ ARAKAT KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Ufuk Mah.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>23.000
+TL</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>20 Yaşında</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>01-10-2024</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ufuk-kiralik/daire/133137-562</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Buca  Adatepe Mah. Dokuzçeşmeler Kampüs yakını Manzaralı  Full Eşyalı 1+1 Kiralık Daire</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Adatepe Mah.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>17.000
+TL</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3 Yaşında</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>4. Kat</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>17-10-2024</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/126264-1772</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BUCA YAYLACIK MAH MERKEZİ KONUMDA 5+1 EŞYALI DUBLEKS DAİRE</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>25.000
+TL</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5 + 1</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>200 m²</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>26 Yaşında</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Zemin</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>04-11-2024</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/120563-1704</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Buca Şirinyer İzban Yakını Eşyalı 3+1 145m2 Doğalgazlı Daire</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / İnkılap Mah.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>26.000
+TL</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>145 m²</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>25 Yaşında</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>4. Kat</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>01-11-2024</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/24511-9141</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>YENİGÜN MAH. KAYMAKAMLIK YAKINI 130 M2 ARAKAT 3+1 KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yenigün Mah.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>26.500
+TL</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>15 Yaşında</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>22-10-2024</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yenigun-kiralik/daire/18435-5255</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>KOŞU İZBAN KARŞISINDA 3+1 KİRALİK ARAKAT DAİRE</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Akıncılar Mah.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>20.000
+TL</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>25 Yaşında</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>23-10-2024</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-akincilar-kiralik/daire/14003-1488</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Buca Atatürk Mahallesi Klimalı Süper Lüks Eşyalı 1+1 Daire......</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Atatürk Mah.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>15.500
+TL</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>09-11-2024</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/151862-4</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BUCA ÇAMLIKULE MAH.'DE SİTE İÇİNDE 2+1 VE 90 m2 KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Çamlıkule Mah.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>20.000
+TL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90 m²</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>15 Yaşında</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>24-10-2024</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/15356-5746</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>KURUÇEŞME MAH ARAKAT DOĞALGAZLI KLİMALI 1+1 KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>14.000
+TL</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>4. Kat</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>03-11-2024</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/145175-65</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>bucaPARİSADN SİTE İÇİNDE EŞYALI DGAZLI KLİMALI 3+1 KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yıldız Mah.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>20.000
+TL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>135 m²</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>21 Yaşında</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>29-10-2024</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/143816-29</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ATAMER GAYRİMENKUL'DEN MERKEZİ KONUM 3+1 DAİRE</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>20.000
+TL</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>30 Yaşında</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>30-10-2024</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/151729-1</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Özevim Emlaktan Merkezi Konumda Öğrenciye Bekara Uygun  Kiralık Eşyalı 3+1 Daire</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Mustafa Kemal Mah.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>25.000
+TL</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>146 m²</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>20 Yaşında</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>23-08-2024</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-mustafa-kemal-kiralik/daire/94107-1325</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>BUCANIN EN GÖZDE KONUMUNDA SİTE İÇİ PANAROMİK DOĞA MANZARALI 3+1</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Buca Koop. Mah.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>27.000
+TL</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>145 m²</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>16 Yaşında</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>7. Kat</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>05-10-2024</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-buca-koop-kiralik/daire/144837-66</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Buca Çaldıran Mah.//Polisokulu Arkası Uçanyolyakını//Şirinyer İzbana 15dk Mesafede//Emekliye Daire</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Çaldıran Mah.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>12.000
+TL</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85 m²</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>30 Yaşında</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Zemin</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>29-10-2024</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-caldiran-kiralik/daire/85846-1866</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Soba</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SAFİR'den Kuruçeşme Kampüs Karşısı 2+1 DAİRE</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>15.000
+TL</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>65 m²</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>28-10-2024</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/109159-320</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>BAŞOĞLUN'DAN LALELİ'DE ARAKAT ASANSÖRLÜ BALKONLU 2+1 DAİRE</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Laleli Mah.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>17.000
+TL</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>75 m²</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>31-10-2024</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/129980-636</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ATATÜRK MAH. 1+1 FULL EŞYALI KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Atatürk Mah.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>12.500
+TL</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7 Yaşında</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Kot 1</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>24-10-2024</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/18435-5254</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>DOĞAZGAZLI KLİMALI KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Atatürk Mah.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>14.000
+TL</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6 Yaşında</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>30-10-2024</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/145398-65</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Hürriyet Mh 2+1 K. Mutfak Ebvyn Banyolu Doğalgazlı Kiralık Daire</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>23.000
+TL</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>105 m²</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>21-10-2024</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/24511-9114</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>YILDIZ MAH'DE KAPALI MUTFAK 2+1 KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yıldız Mah.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>14.000
+TL</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>100 m²</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>11 Yaşında</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Yüksek Giriş</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>18-10-2024</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/142478-125</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Isıtma Yok</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>BUCAKOOP TA SIFIR EŞYALI HAVUZLU SİTE İÇİ 1+1 KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Buca Koop. Mah.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>20.000
+TL</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sıfır Bina</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>12-10-2024</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-buca-koop-kiralik/daire/145175-62</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>TURYAP BUCA'DAN ÇAMLIPINAR MAH.DE ARA KAT EŞYALI KİRALIK 2+1 DAİ</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Çamlıpınar Mah.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>18.250
+TL</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>100 m²</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>13 Yaşında</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>22-10-2024</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-camlipinar-kiralik/daire/15356-5679</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Buca'da 3+1 Siteiçi Doğalgazlı Asansörlü Otoparklı Ferah Kiralık Daire ESNAFOĞLU'ndan...</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Atatürk Mah.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>26.000
+TL</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>150 m²</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>16 Yaşında</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>8. Kat</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>18-09-2024</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/67273-3982</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MARKA'DAN H.AĞA BAHÇESİNİN YANINDA 1+1 ARAKAT D.GAZLI KİRALIK</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Atatürk Mah.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>20.000
+TL</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sıfır Bina</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1089</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Yerden Isıtma</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Lüks Eşyalı Kiralık Daire</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Atatürk Mah.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>18.250
+TL</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>02-11-2024</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/142177-199</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>İZMİR BUCA BUCAKOOP</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Buca Koop. Mah.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>22.000
+TL</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>120 m²</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>25 Yaşında</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>26-08-2024</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-buca-koop-kiralik/daire/37745-1815</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SAYGIN GAYRİMENKUL DEN DOĞALGAZLI KLİMALI EŞYALI 1+1 KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>13.500
+TL</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Ara Kat</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>03-11-2024</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/146420-15</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Bucakoop mah. 1+1 55m2 FULL eşyalı kiralık daire</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Atatürk Mah.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>21.000
+TL</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Ara Kat</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>09-09-2024</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/145608-60</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Merkezi (Pay Ölçer)</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>GOLDİA YAPIDAN TINAZTEPE KAMPÜSE YAKIN 1+1</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>15.500
+TL</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Yüksek Giriş</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>27-10-2024</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/142618-161</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ÖZPA-ŞİRİNYER KIZILKANAT SİTESİNDE DOĞALGAZLI 3+1 KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>20.000
+TL</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>120 m²</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>15 Yaşında</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Yüksek Giriş</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>02-11-2024</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/25220-173</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ATAMER GAYRİMENKUL'DEN DOĞALGAZLI 2+1 DAİRE.</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>18.500
+TL</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>75 m²</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Giriş Katı</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>03-11-2024</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/151729-6</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>BUCA OTOBAN BATI ÇIKIŞI ARAKAT KİRALIK 1+1 DAİRE</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Buca Koop. Mah.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>15.000
+TL</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>25-10-2024</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-buca-koop-kiralik/daire/126264-1808</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Buca Kuruçeşme de Kiralık 1+1 Eşyalı Daire</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>15.000
+TL</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Ara Kat</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>28-10-2024</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/0-43612735</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Merkezi Konumda Kiralık 2+1 Daire 100 Metrekare</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Güven Mah.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>11.000
+TL</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>110 m²</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8 Yaşında</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>05-11-2024</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-guven-kiralik/daire/0-43578169</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Kozağaç Meydanına Çok Yakın Sahibinden Kiralık Daire</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Çamlıkule Mah.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>16.500
+TL</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>67 m²</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3 Yaşında</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>18-10-2024</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/0-43558509</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>BUCA SEYFİ DEMİRSOY HASTANESİ YAKINI 1+1 EŞYALI KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>17.000
+TL</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Yüksek Giriş</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>31-10-2024</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/129980-619</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ÜÇKUYULAR MEYDAN VE FAKÜLTELER YAKINI '2+1' ARAKAT-DGAZLI DAİRE</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Adatepe Mah.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>15.000
+TL</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>70 m²</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>11 Yaşında</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/104457-32</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>AHMET YESEVİ CAD ÜZERİ HASTANE KARŞISI BALKONLU FULL EŞYALI 1+1</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yıldız Mah.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>16.500
+TL</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>18-10-2024</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/142478-124</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>TINAZTEPE KAMPÜS E YÜRÜME MESAFESİNDE 1+1 EŞYALI KLİMALI DAİRE</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Atatürk Mah.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>14.000
+TL</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Giriş Katı</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>03-11-2024</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/145175-61</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Safir'den DoğalGazlı Balkonlu 1+1 Kiralık Daire</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yıldız Mah.</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>12.500
+TL</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>28-10-2024</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/109159-314</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2+1 temiz daire</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Adatepe Mah.</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>20.000
+TL</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>70 m²</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>10 Yaşında</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>4. Kat</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>19-10-2024</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/0-43567376</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>AKINCILAR MAH. 3+1 ARAKAT FULL EŞYALI KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Akıncılar Mah.</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>25.000
+TL</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>17-10-2024</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-akincilar-kiralik/daire/18435-5243</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>BUCA YABANCI DİLLER FAK. 3 DK. MESAFEDE 2+0 FULL EŞYALI KİRALIK</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Adatepe Mah.</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>15.000
+TL</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>60 m²</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>14 Yaşında</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>30-10-2024</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/15356-5755</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Buca Şirinyer Hürriyet Mah 1+1 60 M2 D.gaz Asansör Otopark</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>17.000
+TL</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>60 m²</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sıfır Bina</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>11-10-2024</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/83461-582</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SAYGIN GAYRİMENKUL DEN KLİMALI DOĞALGAZLI ASANSÖRLÜ YENİ EŞYALI SIFIR DAİRE</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>17.000
+TL</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3 Yaşında</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Ara Kat</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>31-10-2024</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/146420-6</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>KAMPÜS YAKINI- HAVUZLU SİTE İÇİ KİRALIK 1+1 70m2 DAİRE!!</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>21.000
+TL</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>70 m²</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>24-08-2024</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/145608-24</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Merkezi (Pay Ölçer)</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Tınaztepe'de Eşyalı 2+1 Kiralık Daire</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
         <is>
           <t>24.000
 TL</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>75 m²</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Yüksek Giriş</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>31-10-2024</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/129980-618</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Şirinyer Park - Hipodrom yakını EŞYALI 3+1</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Efeler Mah.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>24.000
+TL</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>3 + 1</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>130 m²</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>16 Yaşında</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>3. Kat</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>20-10-2024</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/147679-36</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Klima</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>120 m²</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>12 Yaşında</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>10-09-2024</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/9521-793</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>OYAK BUCA KONUTLARINDA KİRALIK 3+1 DAİRE</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Aydoğdu Mah.</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>45.000
+TL</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>147 m²</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6 Yaşında</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>25-10-2024</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-aydogdu-kiralik/daire/31745-21425</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>TÜM FATURALAR DAHİL GÜVENLİKLİ BİNADA EŞYALI STÜDYO DAİRE</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yıldız Mah.</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>13.000
+TL</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Stüdyo</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>37 m²</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>18-10-2024</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/142478-120</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
